--- a/Statystyki_2018/Template/oktr_.xlsx
+++ b/Statystyki_2018/Template/oktr_.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz3" sheetId="1" r:id="rId2"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId3"/>
+    <sheet name="Arkusz3" sheetId="1" r:id="rId3"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001" fullCalcOnLoad="1"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Lp</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Nsm</t>
   </si>
   <si>
-    <t>Ns</t>
-  </si>
-  <si>
     <t>RC</t>
   </si>
   <si>
@@ -129,21 +126,6 @@
     <t>91,19</t>
   </si>
   <si>
-    <t>c12w1</t>
-  </si>
-  <si>
-    <t>c13w1</t>
-  </si>
-  <si>
-    <t>c14w1</t>
-  </si>
-  <si>
-    <t>c15w1</t>
-  </si>
-  <si>
-    <t>c16w1</t>
-  </si>
-  <si>
     <t>Wpływ spraw</t>
   </si>
   <si>
@@ -156,9 +138,6 @@
     <t>c6 w2</t>
   </si>
   <si>
-    <t>c17 w2</t>
-  </si>
-  <si>
     <t xml:space="preserve">123.15                        </t>
   </si>
   <si>
@@ -174,12 +153,6 @@
     <t>c6 w4</t>
   </si>
   <si>
-    <t>1012,334</t>
-  </si>
-  <si>
-    <t>c11w7</t>
-  </si>
-  <si>
     <t>w tym</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
     <t>c6 w5</t>
   </si>
   <si>
-    <t>c17 w5</t>
-  </si>
-  <si>
     <t>pow 6-12 miesięcy</t>
   </si>
   <si>
@@ -219,9 +189,6 @@
     <t>c6w6</t>
   </si>
   <si>
-    <t>c17 w6</t>
-  </si>
-  <si>
     <t>1-2 lat</t>
   </si>
   <si>
@@ -237,15 +204,6 @@
     <t>c8w7</t>
   </si>
   <si>
-    <t>c13w7</t>
-  </si>
-  <si>
-    <t>c16w7t</t>
-  </si>
-  <si>
-    <t>c17 w7</t>
-  </si>
-  <si>
     <t>2 do 3 lat</t>
   </si>
   <si>
@@ -256,9 +214,6 @@
   </si>
   <si>
     <t>c5w8</t>
-  </si>
-  <si>
-    <t>c10w8</t>
   </si>
   <si>
     <t>pow. 3 lat</t>
@@ -605,6 +560,7 @@
     <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3"/>
     <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -653,11 +609,8 @@
     <xf numFmtId="164" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -776,188 +729,284 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:AE24"/>
+  <dimension ref="A3:AC24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.42" customWidth="1"/>
-    <col min="2" max="2" width="38.52" customWidth="1"/>
+    <col min="1" max="1" width="5.42" customWidth="1" style="6"/>
+    <col min="2" max="2" width="38.52" customWidth="1" style="6"/>
   </cols>
   <sheetData>
     <row r="3" ht="17.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="13" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
     </row>
     <row r="4" ht="17.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
     </row>
     <row r="5" ht="39.75">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="17" t="s">
+      <c r="P5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="Q5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="R5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="S5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="T5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="U5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="V5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="W5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="X5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="29">
         <v>1</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="30">
         <v>0</v>
@@ -1026,18 +1075,6 @@
         <v>0</v>
       </c>
       <c r="Y6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1046,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="30">
         <v>0</v>
@@ -1115,18 +1152,6 @@
         <v>0</v>
       </c>
       <c r="Y7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1135,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="30">
         <v>0</v>
@@ -1204,18 +1229,6 @@
         <v>0</v>
       </c>
       <c r="Y8" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1224,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="30">
         <v>36.065573</v>
@@ -1294,18 +1307,6 @@
       </c>
       <c r="Y9" s="30">
         <v>0</v>
-      </c>
-      <c r="Z9" s="30">
-        <v>2538</v>
-      </c>
-      <c r="AA9" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="30">
-        <v>2700</v>
       </c>
     </row>
     <row r="10">
@@ -1313,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="30">
         <v>51.639344</v>
@@ -1383,18 +1384,6 @@
       </c>
       <c r="Y10" s="30">
         <v>0</v>
-      </c>
-      <c r="Z10" s="30">
-        <v>2556</v>
-      </c>
-      <c r="AA10" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="30">
-        <v>2700</v>
       </c>
     </row>
     <row r="11">
@@ -1402,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="30">
         <v>0</v>
@@ -1471,18 +1460,6 @@
         <v>0</v>
       </c>
       <c r="Y11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1491,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="30">
         <v>0</v>
@@ -1560,18 +1537,6 @@
         <v>0</v>
       </c>
       <c r="Y12" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1580,7 +1545,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="30">
         <v>0</v>
@@ -1649,18 +1614,6 @@
         <v>0</v>
       </c>
       <c r="Y13" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1669,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="30">
         <v>0</v>
@@ -1738,18 +1691,6 @@
         <v>0</v>
       </c>
       <c r="Y14" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1758,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="30">
         <v>36.065573</v>
@@ -1828,18 +1769,6 @@
       </c>
       <c r="Y15" s="30">
         <v>0</v>
-      </c>
-      <c r="Z15" s="30">
-        <v>2538</v>
-      </c>
-      <c r="AA15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="30">
-        <v>2700</v>
       </c>
     </row>
     <row r="16">
@@ -1847,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="30">
         <v>51.639344</v>
@@ -1862,73 +1791,61 @@
         <v>0</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="J16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="K16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="31" t="s">
+      <c r="M16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="N16" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="O16" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="U16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="X16" s="31" t="s">
-        <v>28</v>
+      <c r="P16" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>0</v>
+      </c>
+      <c r="R16" s="30">
+        <v>0</v>
+      </c>
+      <c r="S16" s="30">
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
+        <v>13363</v>
+      </c>
+      <c r="U16" s="30">
+        <v>13363</v>
+      </c>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
+      <c r="W16" s="30">
+        <v>0</v>
+      </c>
+      <c r="X16" s="30">
+        <v>0</v>
       </c>
       <c r="Y16" s="30">
         <v>0</v>
-      </c>
-      <c r="Z16" s="30">
-        <v>2556</v>
-      </c>
-      <c r="AA16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="30">
-        <v>2700</v>
       </c>
     </row>
     <row r="17">
@@ -1936,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" s="30">
         <v>0</v>
@@ -1951,72 +1868,60 @@
         <v>0</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="X17" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="P17" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>0</v>
+      </c>
+      <c r="R17" s="30">
+        <v>0</v>
+      </c>
+      <c r="S17" s="30">
+        <v>0</v>
+      </c>
+      <c r="T17" s="30">
+        <v>0</v>
+      </c>
+      <c r="U17" s="30">
+        <v>0</v>
+      </c>
+      <c r="V17" s="30">
+        <v>0</v>
+      </c>
+      <c r="W17" s="30">
+        <v>0</v>
+      </c>
+      <c r="X17" s="30">
+        <v>0</v>
       </c>
       <c r="Y17" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2029,433 +1934,249 @@
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="X18" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C20" s="36"/>
-      <c r="E20" s="31" t="s">
-        <v>53</v>
-      </c>
+      <c r="D20" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="32"/>
       <c r="F20" s="33"/>
       <c r="G20" s="29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="X20" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="34"/>
       <c r="C21" s="37"/>
-      <c r="E21" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="D21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="32"/>
       <c r="F21" s="33"/>
       <c r="G21" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="X21" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="34"/>
       <c r="C22" s="37"/>
-      <c r="E22" s="31" t="s">
-        <v>66</v>
-      </c>
+      <c r="D22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="32"/>
       <c r="F22" s="33"/>
       <c r="G22" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="T22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="W22" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="X22" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="34"/>
       <c r="C23" s="37"/>
-      <c r="E23" s="31" t="s">
-        <v>74</v>
-      </c>
+      <c r="D23" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="32"/>
       <c r="F23" s="33"/>
       <c r="G23" s="29" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="W23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="35"/>
       <c r="C24" s="38"/>
-      <c r="E24" s="31" t="s">
-        <v>79</v>
-      </c>
+      <c r="D24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="32"/>
       <c r="F24" s="33"/>
       <c r="G24" s="29" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="W24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="X24" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2465,19 +2186,19 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:P4"/>
-    <mergeCell ref="Q3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G3:O4"/>
+    <mergeCell ref="P3:X4"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:C24"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2496,28 +2217,28 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.88" customWidth="1"/>
-    <col min="2" max="2" width="37.67" customWidth="1"/>
+    <col min="1" max="1" width="10.88" customWidth="1" style="6"/>
+    <col min="2" max="2" width="37.67" customWidth="1" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
-      <c r="A1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="21"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2531,37 +2252,37 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="27" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="15">
@@ -2578,11 +2299,11 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="22"/>
     </row>
     <row r="6">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="22"/>
     </row>
   </sheetData>
